--- a/reports/requests/requests.xlsx
+++ b/reports/requests/requests.xlsx
@@ -7,48 +7,29 @@
     <workbookView xWindow="480" yWindow="150" windowWidth="27795" windowHeight="12075"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="List" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Header">Лист1!$A$1:$F$3</definedName>
-    <definedName name="Requests">Лист1!$A$4:$F$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$C$3:$E$4</definedName>
+    <definedName name="Header">List!$A$1:$E$3</definedName>
+    <definedName name="Requests">List!$A$4:$E$4</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>request</t>
-  </si>
-  <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
     <t>${number}</t>
   </si>
   <si>
     <t>${request}</t>
   </si>
   <si>
-    <t>${step}</t>
-  </si>
-  <si>
     <t>${position}</t>
   </si>
   <si>
@@ -59,13 +40,25 @@
   </si>
   <si>
     <t>Office info on ${date}</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +93,14 @@
       <charset val="204"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -115,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,11 +139,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -159,8 +169,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,102 +477,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="2" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="str">
+        <f>CONCATENATE("Requests count: ",SUBTOTAL(3,A4:A4))</f>
+        <v>Requests count: 1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+  <autoFilter ref="C3:E4"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>